--- a/TechSphere Case Study/Dashboard/RAW_Sheets_TECHSPHERE.xlsx
+++ b/TechSphere Case Study/Dashboard/RAW_Sheets_TECHSPHERE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hero-Vired-Assessments\TechSphere Case Study\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806AE42C-1FD4-4B9E-9358-2CA2AE635627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D59ED4-9152-4388-801A-22AC0A5BABAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="678" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="678" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee_Details" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,25 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Training_Programs!$A$1:$S$201</definedName>
+    <definedName name="Slicer_department_id">#N/A</definedName>
+    <definedName name="Slicer_employeename">#N/A</definedName>
+    <definedName name="Slicer_Project_Name">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="58" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId14"/>
+        <x14:slicerCache r:id="rId15"/>
+        <x14:slicerCache r:id="rId16"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -50,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7512" uniqueCount="1469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7518" uniqueCount="1471">
   <si>
     <t>employeeid</t>
   </si>
@@ -4457,14 +4470,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Budget Utilization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -4490,7 +4510,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4515,8 +4535,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -4601,11 +4627,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4624,11 +4698,127 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -7047,7 +7237,7 @@
             <c:numRef>
               <c:f>'Departmental Training Impact'!$B$2:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.9167000000000001</c:v>
@@ -7118,7 +7308,7 @@
             <c:numRef>
               <c:f>'Departmental Training Impact'!$C$2:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.9833333333333298</c:v>
@@ -7226,7 +7416,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7367,6 +7557,356 @@
             <a:pPr>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Budget Utilization</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Project Budget Efficiency'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Budget Utilization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Project Budget Efficiency'!$F$2:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Data Migration</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Infrastructure Upgrade</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mobile App Development</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Web Application Revamp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Project Budget Efficiency'!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>123045.7191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143602.86480000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>153457.8645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159877.50060000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1FF8-4365-A80D-1C334C84F634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1986686640"/>
+        <c:axId val="1986683760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1986686640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1986683760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1986683760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1986686640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
@@ -9434,6 +9974,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -9618,7 +10159,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9639,12 +10180,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-IN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="1F497D"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9652,14 +10190,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Departmental</a:t>
+              <a:rPr lang="en-IN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="1F497D"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Departmental Training Impact</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> Training Impact</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -9676,12 +10216,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-IN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:srgbClr val="1F497D"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -9723,6 +10260,61 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Departmental Training Impact'!$A$2:$A$5</c:f>
@@ -9747,7 +10339,7 @@
             <c:numRef>
               <c:f>'Departmental Training Impact'!$B$2:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.9167000000000001</c:v>
@@ -9794,6 +10386,61 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Departmental Training Impact'!$A$2:$A$5</c:f>
@@ -9818,7 +10465,7 @@
             <c:numRef>
               <c:f>'Departmental Training Impact'!$C$2:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.9833333333333298</c:v>
@@ -9842,8 +10489,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -9883,12 +10531,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9910,53 +10555,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="676981487"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -10013,10 +10617,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="accent2">
-        <a:lumMod val="20000"/>
-        <a:lumOff val="80000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -10044,7 +10645,354 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Budget Utilization</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Project Budget Efficiency'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Budget Utilization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Project Budget Efficiency'!$F$2:$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Data Migration</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Infrastructure Upgrade</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mobile App Development</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Web Application Revamp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Project Budget Efficiency'!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>123045.7191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143602.86480000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>153457.8645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159877.50060000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4EA6-4914-969A-D28DC9D5FAA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1986686640"/>
+        <c:axId val="1986683760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1986686640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1986683760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1986683760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1986686640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10592,12 +11540,9 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -10672,6 +11617,83 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11717,6 +12739,475 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12218,7 +13709,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12721,7 +14212,476 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13262,6 +15222,84 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Employee Name">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2981905B-7A0F-C96D-AA1C-9981049A3A5C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Employee Name"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5486400" y="704850"/>
+              <a:ext cx="2371725" cy="2867025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13303,6 +15341,84 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="department_id">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA9A421-3CC5-95A0-2EF1-FC38A3232769}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="department_id"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2266950" y="1123951"/>
+              <a:ext cx="1828800" cy="1447800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13310,16 +15426,135 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE8E018-0274-749C-E9A5-3828C967662C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Project Name">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF76D74-9376-432D-CA28-F738D8FCDCD6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Project Name"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8686800" y="219075"/>
+              <a:ext cx="1828800" cy="1447799"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13350,14 +15585,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13384,10 +15619,282 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B4084B-EA69-4F9D-BC5B-A9EA4B805BD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Employee Name 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4EBAB06-86EA-4CB2-B038-10486FC9E6F6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Employee Name 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="95250" y="447675"/>
+              <a:ext cx="2371725" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="department_id 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BEEF4B-8EFF-41D9-947F-6ECC5693FE03}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="department_id 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2828925" y="447675"/>
+              <a:ext cx="1828800" cy="1447800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Project Name 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8F4237-A615-4F7F-A0D7-ED9C10028C00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Project Name 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5010150" y="447675"/>
+              <a:ext cx="1828800" cy="1447799"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14397,7 +16904,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{755D9DA8-4CC7-4E2F-8D36-1492AAB2FB4F}" name="PivotTable3" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{755D9DA8-4CC7-4E2F-8D36-1492AAB2FB4F}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H3:H4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -14424,6 +16931,110 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_employeename" xr10:uid="{9A89EFC4-2321-4DD5-90B3-CF21E8BC2F89}" sourceName="employeename">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="2"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_department_id" xr10:uid="{4F5FA3B2-91CD-45E4-ACCC-1DFAD768BE5E}" sourceName="department_id">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="2" column="1"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Project_Name" xr10:uid="{C0D637DF-8147-47F4-886F-8EB34ED58415}" sourceName="Project Name">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="3" column="1"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Employee Name" xr10:uid="{51C653FC-6697-4492-9F24-E075F26E8F31}" cache="Slicer_employeename" caption="Employee Name" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="department_id" xr10:uid="{8AAF7B80-B959-4C6A-9B58-BD6281772090}" cache="Slicer_department_id" caption="Department Id" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Project Name" xr10:uid="{58A63FED-9F04-4DC6-88BE-2A5F5221DD2F}" cache="Slicer_Project_Name" caption="Project Name" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Employee Name 1" xr10:uid="{DB285CFE-524B-4B48-A97C-1F5A1774B100}" cache="Slicer_employeename" caption="Employee Name" rowHeight="241300"/>
+  <slicer name="department_id 1" xr10:uid="{CA8CB916-3F72-443F-8B1A-2215AD79C239}" cache="Slicer_department_id" caption="Department Id" rowHeight="241300"/>
+  <slicer name="Project Name 1" xr10:uid="{4ABBF0A6-7456-43FB-BD30-E287E8833A47}" cache="Slicer_Project_Name" caption="Project Name" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4952EB7-2A0A-4E4A-AAA8-2D2088FCE82C}" name="Table1" displayName="Table1" ref="A1:D157" totalsRowShown="0">
+  <autoFilter ref="A1:D157" xr:uid="{C4952EB7-2A0A-4E4A-AAA8-2D2088FCE82C}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4CC53B9F-1F7E-45D4-A274-B27DF27656C3}" name="employeeid"/>
+    <tableColumn id="2" xr3:uid="{A352A968-9AAC-4874-A265-7F7D2C89D5B3}" name="employeename"/>
+    <tableColumn id="3" xr3:uid="{C0F68558-0967-4919-A36B-64A04350F219}" name="total_hours"/>
+    <tableColumn id="4" xr3:uid="{521BE73A-03F1-4608-B5D3-D29D6908CAAB}" name="absenteeism"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB8A3698-71C7-4C56-8E82-D9A010CEDD26}" name="Table2" displayName="Table2" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{DB8A3698-71C7-4C56-8E82-D9A010CEDD26}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0BE302F8-C010-480B-BDB6-76A97F4F7177}" name="department_id"/>
+    <tableColumn id="2" xr3:uid="{9B98D6C7-8D0C-4759-A853-5BD9E6690191}" name="avg_performance" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{815F38F0-AF4C-46EB-95D8-F57A13C89FA7}" name="avg_feedback" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A212A96A-8991-494E-98F9-DC6EB7C37969}" name="Table3" displayName="Table3" ref="F1:G5" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="F1:G5" xr:uid="{A212A96A-8991-494E-98F9-DC6EB7C37969}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{23E24F1B-6EB5-40C0-80CC-C1AB09302C28}" name="Project Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{794A86D3-5098-472B-8AE8-9D81A0F314CD}" name="Budget Utilization" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24994,8 +27605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A5BCF7-C0A1-41BD-BE28-A0B48C6F4D78}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25157,6 +27768,13 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -46176,7 +48794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -58669,16 +61287,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186B8C7D-D9B1-45F8-BFB4-D5B689BED575}">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView topLeftCell="D135" workbookViewId="0">
-      <selection activeCell="I137" sqref="I137"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -60889,6 +63507,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -60896,13 +63524,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289CD973-A950-45DF-A287-AFC931BF1D18}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -60920,10 +63550,10 @@
       <c r="A2" t="s">
         <v>220</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="12">
         <v>3.9167000000000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="12">
         <v>3.9833333333333298</v>
       </c>
     </row>
@@ -60931,10 +63561,10 @@
       <c r="A3" t="s">
         <v>217</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="12">
         <v>3.7833000000000001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="12">
         <v>3.8983333333333299</v>
       </c>
     </row>
@@ -60942,10 +63572,10 @@
       <c r="A4" t="s">
         <v>218</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="12">
         <v>4.1837</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="12">
         <v>3.88163265306122</v>
       </c>
     </row>
@@ -60953,25 +63583,35 @@
       <c r="A5" t="s">
         <v>219</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="12">
         <v>4.1162999999999998</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="12">
         <v>3.9348837209302299</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278BA68B-E7DB-4116-9864-E811A6DAA2AF}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60979,9 +63619,11 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>392</v>
       </c>
@@ -60991,8 +63633,14 @@
       <c r="C1" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" s="15" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>808</v>
       </c>
@@ -61002,8 +63650,14 @@
       <c r="C2">
         <v>7973.0820000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="G2" s="14">
+        <v>123045.7191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>423</v>
       </c>
@@ -61013,8 +63667,14 @@
       <c r="C3">
         <v>7953.2115000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="G3" s="14">
+        <v>143602.86480000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>533</v>
       </c>
@@ -61024,8 +63684,14 @@
       <c r="C4">
         <v>7717.0784000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" s="14">
+        <v>153457.8645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>380</v>
       </c>
@@ -61035,8 +63701,14 @@
       <c r="C5">
         <v>7664.3607000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="G5" s="18">
+        <v>159877.50060000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>572</v>
       </c>
@@ -61047,7 +63719,7 @@
         <v>7267.42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -61058,7 +63730,7 @@
         <v>6961.7543999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>53</v>
       </c>
@@ -61069,7 +63741,7 @@
         <v>6871.2982000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17</v>
       </c>
@@ -61080,7 +63752,7 @@
         <v>6771.7887000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>812</v>
       </c>
@@ -61091,7 +63763,7 @@
         <v>6579.4570999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>702</v>
       </c>
@@ -61102,7 +63774,7 @@
         <v>6559.3913000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>872</v>
       </c>
@@ -61113,7 +63785,7 @@
         <v>6522.6666999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>68</v>
       </c>
@@ -61124,7 +63796,7 @@
         <v>6502.2115000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>382</v>
       </c>
@@ -61135,7 +63807,7 @@
         <v>6490.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>571</v>
       </c>
@@ -61146,7 +63818,7 @@
         <v>6437</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>305</v>
       </c>
@@ -63194,6 +65866,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
